--- a/doc/12.05.2013 Meeting/Result12.05.2013.xlsx
+++ b/doc/12.05.2013 Meeting/Result12.05.2013.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="62">
   <si>
     <t xml:space="preserve">Accuracy </t>
   </si>
@@ -201,6 +201,9 @@
   <si>
     <t>first_correct_top2</t>
   </si>
+  <si>
+    <t xml:space="preserve">2waymodel_enrich_more_goals </t>
+  </si>
 </sst>
 </file>
 
@@ -294,10 +297,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,7 +353,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -864,11 +866,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87152512"/>
-        <c:axId val="87687168"/>
+        <c:axId val="70899200"/>
+        <c:axId val="70901120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87152512"/>
+        <c:axId val="70899200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,14 +892,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87687168"/>
+        <c:crossAx val="70901120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -905,7 +906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87687168"/>
+        <c:axId val="70901120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -929,21 +930,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87152512"/>
+        <c:crossAx val="70899200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -993,7 +992,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1454,11 +1452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87718528"/>
-        <c:axId val="87728896"/>
+        <c:axId val="77494144"/>
+        <c:axId val="77496320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87718528"/>
+        <c:axId val="77494144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,14 +1478,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87728896"/>
+        <c:crossAx val="77496320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1495,7 +1492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87728896"/>
+        <c:axId val="77496320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -1519,21 +1516,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87718528"/>
+        <c:crossAx val="77494144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2097,11 +2092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55114368"/>
-        <c:axId val="55259904"/>
+        <c:axId val="78930304"/>
+        <c:axId val="78932224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55114368"/>
+        <c:axId val="78930304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2130,7 +2125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55259904"/>
+        <c:crossAx val="78932224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2138,7 +2133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55259904"/>
+        <c:axId val="78932224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -2169,7 +2164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55114368"/>
+        <c:crossAx val="78930304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2740,11 +2735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55876992"/>
-        <c:axId val="55879552"/>
+        <c:axId val="78965376"/>
+        <c:axId val="80233216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55876992"/>
+        <c:axId val="78965376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +2768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55879552"/>
+        <c:crossAx val="80233216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2781,7 +2776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55879552"/>
+        <c:axId val="80233216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -2812,7 +2807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55876992"/>
+        <c:crossAx val="78965376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3267,16 +3262,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6286,15 +6281,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="3" customWidth="1"/>
@@ -6303,7 +6298,7 @@
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -6328,8 +6323,32 @@
       <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -6354,8 +6373,32 @@
       <c r="H2" s="3">
         <v>0.11582340000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.70495399999999997</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0.97798779999999996</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0.94208829999999999</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.59009210000000001</v>
+      </c>
+      <c r="P2" s="7">
+        <v>4.4024300000000002E-2</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.11582340000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -6380,14 +6423,38 @@
       <c r="H3" s="3">
         <v>0.2115882</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.59749739999999996</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.96357740000000003</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.8942059</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.80500519999999998</v>
+      </c>
+      <c r="P3" s="7">
+        <v>7.2845300000000002E-2</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0.2115882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -6412,8 +6479,32 @@
       <c r="H5" s="3">
         <v>0.11582340000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.88800840000000003</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.45122269999999998</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.14023430000000001</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.16506129999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -6438,14 +6529,38 @@
       <c r="H6" s="3">
         <v>0.2115882</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.86032070000000005</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.60135640000000001</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.16429659999999999</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.2168224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -6471,7 +6586,7 @@
         <v>0.11582340000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -6497,13 +6612,13 @@
         <v>0.2115882</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -6529,7 +6644,7 @@
         <v>0.11582340000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -6555,13 +6670,13 @@
         <v>0.2115882</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -6587,7 +6702,7 @@
         <v>0.11582340000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -6641,106 +6756,54 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>0.70495399999999997</v>
-      </c>
-      <c r="D18" s="13">
+        <v>0.71135470000000001</v>
+      </c>
+      <c r="D18" s="3">
         <v>0.97798779999999996</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="3">
         <v>0.94208829999999999</v>
       </c>
       <c r="F18" s="3">
-        <v>0.59009210000000001</v>
-      </c>
-      <c r="G18" s="7">
+        <v>0.57729070000000005</v>
+      </c>
+      <c r="G18" s="3">
         <v>4.4024300000000002E-2</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="3">
         <v>0.11582340000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>0.59749739999999996</v>
-      </c>
-      <c r="D19" s="13">
+        <v>0.56100099999999997</v>
+      </c>
+      <c r="D19" s="3">
         <v>0.96357740000000003</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="3">
         <v>0.8942059</v>
       </c>
       <c r="F19" s="3">
-        <v>0.80500519999999998</v>
-      </c>
-      <c r="G19" s="7">
+        <v>0.8779979</v>
+      </c>
+      <c r="G19" s="3">
         <v>7.2845300000000002E-2</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="3">
         <v>0.2115882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.73195969999999999</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.91654290000000005</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.88800840000000003</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0.45122269999999998</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0.14023430000000001</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.16506129999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.62304479999999995</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.90263249999999995</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.86032070000000005</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.60135640000000001</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.16429659999999999</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.2168224</v>
       </c>
     </row>
   </sheetData>

--- a/doc/12.05.2013 Meeting/Result12.05.2013.xlsx
+++ b/doc/12.05.2013 Meeting/Result12.05.2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="64">
   <si>
     <t xml:space="preserve">Accuracy </t>
   </si>
@@ -204,6 +204,12 @@
   <si>
     <t xml:space="preserve">2waymodel_enrich_more_goals </t>
   </si>
+  <si>
+    <t xml:space="preserve">Goals_accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goals_l2 </t>
+  </si>
 </sst>
 </file>
 
@@ -212,9 +218,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -247,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -270,11 +283,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -297,15 +406,340 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -866,11 +1300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70899200"/>
-        <c:axId val="70901120"/>
+        <c:axId val="144697984"/>
+        <c:axId val="146539264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70899200"/>
+        <c:axId val="144697984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +1332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70901120"/>
+        <c:crossAx val="146539264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -906,7 +1340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70901120"/>
+        <c:axId val="146539264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -936,7 +1370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70899200"/>
+        <c:crossAx val="144697984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1452,11 +1886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77494144"/>
-        <c:axId val="77496320"/>
+        <c:axId val="146574720"/>
+        <c:axId val="146585088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77494144"/>
+        <c:axId val="146574720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77496320"/>
+        <c:crossAx val="146585088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1492,7 +1926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77496320"/>
+        <c:axId val="146585088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -1522,7 +1956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77494144"/>
+        <c:crossAx val="146574720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1578,7 +2012,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2092,11 +2525,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78930304"/>
-        <c:axId val="78932224"/>
+        <c:axId val="146638720"/>
+        <c:axId val="146640896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78930304"/>
+        <c:axId val="146638720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,14 +2551,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78932224"/>
+        <c:crossAx val="146640896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2133,7 +2565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78932224"/>
+        <c:axId val="146640896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -2157,21 +2589,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78930304"/>
+        <c:crossAx val="146638720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2221,7 +2651,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2735,11 +3164,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78965376"/>
-        <c:axId val="80233216"/>
+        <c:axId val="146682240"/>
+        <c:axId val="146684160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78965376"/>
+        <c:axId val="146682240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,14 +3190,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80233216"/>
+        <c:crossAx val="146684160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2776,7 +3204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80233216"/>
+        <c:axId val="146684160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -2800,21 +3228,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78965376"/>
+        <c:crossAx val="146682240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2958,6 +3384,22 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="J1:Q6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <tableColumns count="8">
+    <tableColumn id="1" name="method " dataDxfId="7"/>
+    <tableColumn id="2" name="test " dataDxfId="6"/>
+    <tableColumn id="3" name="Goals_accuracy " dataDxfId="5"/>
+    <tableColumn id="4" name="Requested_accuracy " dataDxfId="4"/>
+    <tableColumn id="5" name="Method_accuracy " dataDxfId="3"/>
+    <tableColumn id="6" name="Goals_l2 " dataDxfId="2"/>
+    <tableColumn id="7" name="Requested_l2 "/>
+    <tableColumn id="8" name="Method_l2 "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5919,8 +6361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6283,8 +6725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q6" sqref="J1:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6295,10 +6737,18 @@
     <col min="4" max="5" width="9.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
     <col min="7" max="9" width="9.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="24.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="29.5703125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="12" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -6323,32 +6773,32 @@
       <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -6373,32 +6823,32 @@
       <c r="H2" s="3">
         <v>0.11582340000000001</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="16">
         <v>0.70495399999999997</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="15">
         <v>0.97798779999999996</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="15">
         <v>0.94208829999999999</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="16">
         <v>0.59009210000000001</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="15">
         <v>4.4024300000000002E-2</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="19">
         <v>0.11582340000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -6423,38 +6873,46 @@
       <c r="H3" s="3">
         <v>0.2115882</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="16">
         <v>0.59749739999999996</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="15">
         <v>0.96357740000000003</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="15">
         <v>0.8942059</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="16">
         <v>0.80500519999999998</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="15">
         <v>7.2845300000000002E-2</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="19">
         <v>0.2115882</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J4" s="18"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -6479,32 +6937,32 @@
       <c r="H5" s="3">
         <v>0.11582340000000001</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="15">
         <v>0.73195969999999999</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="16">
         <v>0.91654290000000005</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="16">
         <v>0.88800840000000003</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="15">
         <v>0.45122269999999998</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="17">
         <v>0.14023430000000001</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="21">
         <v>0.16506129999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -6529,28 +6987,28 @@
       <c r="H6" s="3">
         <v>0.2115882</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="28">
         <v>0.62304479999999995</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="29">
         <v>0.90263249999999995</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="29">
         <v>0.86032070000000005</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="28">
         <v>0.60135640000000001</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="30">
         <v>0.16429659999999999</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="31">
         <v>0.2168224</v>
       </c>
     </row>
@@ -6809,5 +7267,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>